--- a/medicine/Pharmacie/1964_en_santé_et_médecine/1964_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1964_en_santé_et_médecine/1964_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1964_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1964_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1964 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1964_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1964_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>21 juin : fondation de l’École française de psychanalyse par Jacques Lacan, qui deviendra l’école freudienne de Paris.
 18 juillet : création en France de l'Institut national de la santé et de la recherche médicale (INSERM).
-La vaccination contre la poliomyélite est rendu obligatoire en France[1].
-William Donald Hamilton développe sa théorie de la sélection de parentèle[2].</t>
+La vaccination contre la poliomyélite est rendu obligatoire en France.
+William Donald Hamilton développe sa théorie de la sélection de parentèle.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1964_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1964_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>22 mai : le Cancer Chemotherapy National Service Center (CCNSC) découvre qu'un extrait d'if (Taxus brevifolia) présente une activité cytotoxique[3]. Le taxol, médicament antitumoral, en sera isolé en 1966.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22 mai : le Cancer Chemotherapy National Service Center (CCNSC) découvre qu'un extrait d'if (Taxus brevifolia) présente une activité cytotoxique. Le taxol, médicament antitumoral, en sera isolé en 1966.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1964_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1964_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -582,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1964_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1964_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,10 +618,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>9 mars : Paul Remlinger (en) (né en 1871), médecin biologiste français.
-22 mars : Paul Goy (né en 1883), médecin et poète français[4].</t>
+22 mars : Paul Goy (né en 1883), médecin et poète français.</t>
         </is>
       </c>
     </row>
